--- a/testdata/mock_item_data.xlsx
+++ b/testdata/mock_item_data.xlsx
@@ -12236,13 +12236,13 @@
     <t>desc-1999</t>
   </si>
   <si>
-    <t>item-2000</t>
+    <t>item-2020</t>
   </si>
   <si>
     <t>desc-2000</t>
   </si>
   <si>
-    <t>item-2001</t>
+    <t>item-2021</t>
   </si>
   <si>
     <t>desc-2020</t>
@@ -13217,7 +13217,7 @@
   <dimension ref="A1:N2002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1965" workbookViewId="0">
-      <selection activeCell="H2005" sqref="H2005"/>
+      <selection activeCell="B2002" sqref="B2002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/testdata/mock_item_data.xlsx
+++ b/testdata/mock_item_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22025" uniqueCount="4073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22014" uniqueCount="4071">
   <si>
     <t>ID</t>
   </si>
@@ -12216,12 +12216,6 @@
   </si>
   <si>
     <t>desc-1996</t>
-  </si>
-  <si>
-    <t>item-1997</t>
-  </si>
-  <si>
-    <t>desc-1997</t>
   </si>
   <si>
     <t>item-1998</t>
@@ -13214,10 +13208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2002"/>
+  <dimension ref="A1:N2001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1965" workbookViewId="0">
-      <selection activeCell="B2002" sqref="B2002"/>
+      <selection activeCell="A1998" sqref="$A1998:$XFD1998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -101092,7 +101086,7 @@
     </row>
     <row r="1998" spans="1:14">
       <c r="A1998">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1998" t="s">
         <v>4063</v>
@@ -101101,42 +101095,42 @@
         <v>4064</v>
       </c>
       <c r="D1998">
-        <v>19970</v>
+        <v>19980</v>
       </c>
       <c r="E1998" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F1998" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G1998" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H1998" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I1998" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J1998" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K1998" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L1998" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M1998">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1998" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1999" spans="1:14">
       <c r="A1999">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1999" t="s">
         <v>4065</v>
@@ -101145,42 +101139,42 @@
         <v>4066</v>
       </c>
       <c r="D1999">
-        <v>19980</v>
+        <v>19990</v>
       </c>
       <c r="E1999" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F1999" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G1999" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H1999" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I1999" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J1999" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K1999" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L1999" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M1999">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1999" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2000" spans="1:14">
       <c r="A2000">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B2000" t="s">
         <v>4067</v>
@@ -101189,42 +101183,42 @@
         <v>4068</v>
       </c>
       <c r="D2000">
-        <v>19990</v>
+        <v>20000</v>
       </c>
       <c r="E2000" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F2000" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G2000" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H2000" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I2000" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2000" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2000" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2000" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2000">
         <v>20</v>
       </c>
-      <c r="J2000" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2000" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2000" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2000">
-        <v>19</v>
-      </c>
       <c r="N2000" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2001" spans="1:14">
       <c r="A2001">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B2001" t="s">
         <v>4069</v>
@@ -101263,50 +101257,6 @@
         <v>20</v>
       </c>
       <c r="N2001" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:14">
-      <c r="A2002">
-        <v>2001</v>
-      </c>
-      <c r="B2002" t="s">
-        <v>4071</v>
-      </c>
-      <c r="C2002" t="s">
-        <v>4072</v>
-      </c>
-      <c r="D2002">
-        <v>20000</v>
-      </c>
-      <c r="E2002" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2002" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2002" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2002" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2002" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2002" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2002" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2002" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2002">
-        <v>20</v>
-      </c>
-      <c r="N2002" t="s">
         <v>35</v>
       </c>
     </row>

--- a/testdata/mock_item_data.xlsx
+++ b/testdata/mock_item_data.xlsx
@@ -12230,7 +12230,7 @@
     <t>desc-1999</t>
   </si>
   <si>
-    <t>item-2020</t>
+    <t>item-2030</t>
   </si>
   <si>
     <t>desc-2000</t>
@@ -12252,14 +12252,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12715,28 +12708,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12745,118 +12741,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13211,7 +13204,7 @@
   <dimension ref="A1:N2001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1965" workbookViewId="0">
-      <selection activeCell="A1998" sqref="$A1998:$XFD1998"/>
+      <selection activeCell="B2000" sqref="B2000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/testdata/mock_item_data.xlsx
+++ b/testdata/mock_item_data.xlsx
@@ -12230,7 +12230,7 @@
     <t>desc-1999</t>
   </si>
   <si>
-    <t>item-2030</t>
+    <t>item-2040</t>
   </si>
   <si>
     <t>desc-2000</t>
@@ -13204,7 +13204,7 @@
   <dimension ref="A1:N2001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1965" workbookViewId="0">
-      <selection activeCell="B2000" sqref="B2000"/>
+      <selection activeCell="D2000" sqref="D2000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
